--- a/Clientes/Enerjet/SQL Query.xlsx
+++ b/Clientes/Enerjet/SQL Query.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\Enerjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutionsLatam/InteractSolutions/Clientes/Enerjet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595167F-DDF6-4572-9A57-F4643C8E1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D595167F-DDF6-4572-9A57-F4643C8E1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7B9B76-C0CA-49FF-802F-5D64DA772ED8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{32D774AB-172F-4235-B065-F9CBE21D3AA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{32D774AB-172F-4235-B065-F9CBE21D3AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Programacion Semanal" sheetId="1" r:id="rId1"/>
@@ -2190,20 +2190,20 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="139.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="139.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_programacionsemanal values (4,'48','2020','482020','2020-11-23','2020-11-29','2020 SEMANA DEL 23/11 AL  29/11')").execute();</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (5,'49','2020','492020','2020-11-30','2020-12-06','2020 SEMANA DEL 30/11 AL  06/12')").execute();</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (6,'50','2020','502020','2020-12-07','2020-12-13','2020 SEMANA DEL 07/12 AL  13/12')").execute();</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (7,'51','2020','512020','2020-12-14','2020-12-20','2020 SEMANA DEL 14/12 AL  20/12')").execute();</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (8,'52','2020','522020','2020-12-21','2020-12-27','2020 SEMANA DEL 21/12 AL  27/12')").execute();</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (9,'53','2020','532020','2020-12-28','2021-01-03','2020 SEMANA DEL 28/12 AL  03/01')").execute();</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (10,'1','2021','12021','2020-12-28','2021-01-03','2021 SEMANA DEL 28/12 AL  03/01')").execute();</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (11,'2','2021','22021','2021-01-04','2021-01-10','2021 SEMANA DEL 04/01 AL  10/01')").execute();</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (12,'3','2021','32021','2021-01-11','2021-01-17','2021 SEMANA DEL 11/01 AL  17/01')").execute();</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (13,'4','2021','42021','2021-01-18','2021-01-24','2021 SEMANA DEL 18/01 AL  24/01')").execute();</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (14,'5','2021','52021','2021-01-25','2021-01-31','2021 SEMANA DEL 25/01 AL  31/01')").execute();</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (15,'6','2021','62021','2021-02-01','2021-02-07','2021 SEMANA DEL 01/02 AL  07/02')").execute();</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (16,'7','2021','72021','2021-02-08','2021-02-14','2021 SEMANA DEL 08/02 AL  14/02')").execute();</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (17,'8','2021','82021','2021-02-15','2021-02-21','2021 SEMANA DEL 15/02 AL  21/02')").execute();</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (18,'9','2021','92021','2021-02-22','2021-02-28','2021 SEMANA DEL 22/02 AL  28/02')").execute();</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (19,'10','2021','102021','2021-03-01','2021-03-07','2021 SEMANA DEL 01/03 AL  07/03')").execute();</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (20,'11','2021','112021','2021-03-08','2021-03-14','2021 SEMANA DEL 08/03 AL  14/03')").execute();</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (21,'12','2021','122021','2021-03-15','2021-03-21','2021 SEMANA DEL 15/03 AL  21/03')").execute();</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (22,'13','2021','132021','2021-03-22','2021-03-28','2021 SEMANA DEL 22/03 AL  28/03')").execute();</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (23,'14','2021','142021','2021-03-29','2021-04-04','2021 SEMANA DEL 29/03 AL  04/04')").execute();</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (24,'15','2021','152021','2021-04-05','2021-04-11','2021 SEMANA DEL 05/04 AL  11/04')").execute();</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (25,'16','2021','162021','2021-04-12','2021-04-18','2021 SEMANA DEL 12/04 AL  18/04')").execute();</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (26,'17','2021','172021','2021-04-19','2021-04-25','2021 SEMANA DEL 19/04 AL  25/04')").execute();</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>27</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (27,'18','2021','182021','2021-04-26','2021-05-02','2021 SEMANA DEL 26/04 AL  02/05')").execute();</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (28,'19','2021','192021','2021-05-03','2021-05-09','2021 SEMANA DEL 03/05 AL  09/05')").execute();</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>29</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (29,'20','2021','202021','2021-05-10','2021-05-16','2021 SEMANA DEL 10/05 AL  16/05')").execute();</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>30</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (30,'21','2021','212021','2021-05-17','2021-05-23','2021 SEMANA DEL 17/05 AL  23/05')").execute();</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>31</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (31,'22','2021','222021','2021-05-24','2021-05-30','2021 SEMANA DEL 24/05 AL  30/05')").execute();</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>32</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (32,'23','2021','232021','2021-05-31','2021-06-06','2021 SEMANA DEL 31/05 AL  06/06')").execute();</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>33</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (33,'24','2021','242021','2021-06-07','2021-06-13','2021 SEMANA DEL 07/06 AL  13/06')").execute();</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>34</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (34,'25','2021','252021','2021-06-14','2021-06-20','2021 SEMANA DEL 14/06 AL  20/06')").execute();</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>35</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (35,'26','2021','262021','2021-06-21','2021-06-27','2021 SEMANA DEL 21/06 AL  27/06')").execute();</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>36</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (36,'27','2021','272021','2021-06-28','2021-07-04','2021 SEMANA DEL 28/06 AL  04/07')").execute();</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>37</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (37,'28','2021','282021','2021-07-05','2021-07-11','2021 SEMANA DEL 05/07 AL  11/07')").execute();</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>38</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (38,'29','2021','292021','2021-07-12','2021-07-18','2021 SEMANA DEL 12/07 AL  18/07')").execute();</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>39</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (39,'30','2021','302021','2021-07-19','2021-07-25','2021 SEMANA DEL 19/07 AL  25/07')").execute();</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>40</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (40,'31','2021','312021','2021-07-26','2021-08-01','2021 SEMANA DEL 26/07 AL  01/08')").execute();</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>41</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (41,'32','2021','322021','2021-08-02','2021-08-08','2021 SEMANA DEL 02/08 AL  08/08')").execute();</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>42</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (42,'33','2021','332021','2021-08-09','2021-08-15','2021 SEMANA DEL 09/08 AL  15/08')").execute();</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (43,'34','2021','342021','2021-08-16','2021-08-22','2021 SEMANA DEL 16/08 AL  22/08')").execute();</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (44,'35','2021','352021','2021-08-23','2021-08-29','2021 SEMANA DEL 23/08 AL  29/08')").execute();</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (45,'36','2021','362021','2021-08-30','2021-09-05','2021 SEMANA DEL 30/08 AL  05/09')").execute();</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (46,'37','2021','372021','2021-09-06','2021-09-12','2021 SEMANA DEL 06/09 AL  12/09')").execute();</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (47,'38','2021','382021','2021-09-13','2021-09-19','2021 SEMANA DEL 13/09 AL  19/09')").execute();</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (48,'39','2021','392021','2021-09-20','2021-09-26','2021 SEMANA DEL 20/09 AL  26/09')").execute();</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (49,'40','2021','402021','2021-09-27','2021-10-03','2021 SEMANA DEL 27/09 AL  03/10')").execute();</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (50,'41','2021','412021','2021-10-04','2021-10-10','2021 SEMANA DEL 04/10 AL  10/10')").execute();</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (51,'42','2021','422021','2021-10-11','2021-10-17','2021 SEMANA DEL 11/10 AL  17/10')").execute();</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>52</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (52,'43','2021','432021','2021-10-18','2021-10-24','2021 SEMANA DEL 18/10 AL  24/10')").execute();</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (53,'44','2021','442021','2021-10-25','2021-10-31','2021 SEMANA DEL 25/10 AL  31/10')").execute();</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>54</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (54,'45','2021','452021','2021-11-01','2021-11-07','2021 SEMANA DEL 01/11 AL  07/11')").execute();</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>55</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (55,'46','2021','462021','2021-11-08','2021-11-14','2021 SEMANA DEL 08/11 AL  14/11')").execute();</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>56</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (56,'47','2021','472021','2021-11-15','2021-11-21','2021 SEMANA DEL 15/11 AL  21/11')").execute();</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>57</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (57,'48','2021','482021','2021-11-22','2021-11-28','2021 SEMANA DEL 22/11 AL  28/11')").execute();</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>58</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (58,'49','2021','492021','2021-11-29','2021-12-05','2021 SEMANA DEL 29/11 AL  05/12')").execute();</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>59</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (59,'50','2021','502021','2021-12-06','2021-12-12','2021 SEMANA DEL 06/12 AL  12/12')").execute();</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (60,'51','2021','512021','2021-12-13','2021-12-19','2021 SEMANA DEL 13/12 AL  19/12')").execute();</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>61</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (61,'52','2021','522021','2021-12-20','2021-12-26','2021 SEMANA DEL 20/12 AL  26/12')").execute();</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>62</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (62,'1','2022','12022','2022-01-03','2022-01-09','2022 SEMANA DEL 03/01 AL  09/01')").execute();</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>63</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (63,'2','2022','22022','2022-01-10','2022-01-16','2022 SEMANA DEL 10/01 AL  16/01')").execute();</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>64</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (64,'3','2022','32022','2022-01-17','2022-01-23','2022 SEMANA DEL 17/01 AL  23/01')").execute();</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>65</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (65,'4','2022','42022','2022-01-24','2022-01-30','2022 SEMANA DEL 24/01 AL  30/01')").execute();</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>66</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (66,'5','2022','52022','2022-01-31','2022-02-06','2022 SEMANA DEL 31/01 AL  06/02')").execute();</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>67</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (67,'6','2022','62022','2022-02-07','2022-02-13','2022 SEMANA DEL 07/02 AL  13/02')").execute();</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>68</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (68,'7','2022','72022','2022-02-14','2022-02-20','2022 SEMANA DEL 14/02 AL  20/02')").execute();</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>69</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (69,'8','2022','82022','2022-02-21','2022-02-27','2022 SEMANA DEL 21/02 AL  27/02')").execute();</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>70</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (70,'9','2022','92022','2022-02-28','2022-03-06','2022 SEMANA DEL 28/02 AL  06/03')").execute();</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>71</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (71,'10','2022','102022','2022-03-07','2022-03-13','2022 SEMANA DEL 07/03 AL  13/03')").execute();</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>72</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (72,'11','2022','112022','2022-03-14','2022-03-20','2022 SEMANA DEL 14/03 AL  20/03')").execute();</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>73</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (73,'12','2022','122022','2022-03-21','2022-03-27','2022 SEMANA DEL 21/03 AL  27/03')").execute();</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>74</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (74,'13','2022','132022','2022-03-28','2022-04-03','2022 SEMANA DEL 28/03 AL  03/04')").execute();</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (75,'14','2022','142022','2022-04-04','2022-04-10','2022 SEMANA DEL 04/04 AL  10/04')").execute();</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>76</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (76,'15','2022','152022','2022-04-11','2022-04-17','2022 SEMANA DEL 11/04 AL  17/04')").execute();</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>77</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (77,'16','2022','162022','2022-04-18','2022-04-24','2022 SEMANA DEL 18/04 AL  24/04')").execute();</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>78</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (78,'17','2022','172022','2022-04-25','2022-05-01','2022 SEMANA DEL 25/04 AL  01/05')").execute();</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>79</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (79,'18','2022','182022','2022-05-02','2022-05-08','2022 SEMANA DEL 02/05 AL  08/05')").execute();</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>80</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (80,'19','2022','192022','2022-05-09','2022-05-15','2022 SEMANA DEL 09/05 AL  15/05')").execute();</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>81</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (81,'20','2022','202022','2022-05-16','2022-05-22','2022 SEMANA DEL 16/05 AL  22/05')").execute();</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>82</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (82,'21','2022','212022','2022-05-23','2022-05-29','2022 SEMANA DEL 23/05 AL  29/05')").execute();</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>83</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (83,'22','2022','222022','2022-05-30','2022-06-05','2022 SEMANA DEL 30/05 AL  05/06')").execute();</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>84</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (84,'23','2022','232022','2022-06-06','2022-06-12','2022 SEMANA DEL 06/06 AL  12/06')").execute();</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>85</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (85,'24','2022','242022','2022-06-13','2022-06-19','2022 SEMANA DEL 13/06 AL  19/06')").execute();</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>86</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (86,'25','2022','252022','2022-06-20','2022-06-26','2022 SEMANA DEL 20/06 AL  26/06')").execute();</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>87</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (87,'26','2022','262022','2022-06-27','2022-07-03','2022 SEMANA DEL 27/06 AL  03/07')").execute();</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>88</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (88,'27','2022','272022','2022-07-04','2022-07-10','2022 SEMANA DEL 04/07 AL  10/07')").execute();</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (89,'28','2022','282022','2022-07-11','2022-07-17','2022 SEMANA DEL 11/07 AL  17/07')").execute();</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>90</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (90,'29','2022','292022','2022-07-18','2022-07-24','2022 SEMANA DEL 18/07 AL  24/07')").execute();</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>91</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (91,'30','2022','302022','2022-07-25','2022-07-31','2022 SEMANA DEL 25/07 AL  31/07')").execute();</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>92</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (92,'31','2022','312022','2022-08-01','2022-08-07','2022 SEMANA DEL 01/08 AL  07/08')").execute();</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>93</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (93,'32','2022','322022','2022-08-08','2022-08-14','2022 SEMANA DEL 08/08 AL  14/08')").execute();</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>94</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (94,'33','2022','332022','2022-08-15','2022-08-21','2022 SEMANA DEL 15/08 AL  21/08')").execute();</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>95</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (95,'34','2022','342022','2022-08-22','2022-08-28','2022 SEMANA DEL 22/08 AL  28/08')").execute();</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (96,'35','2022','352022','2022-08-29','2022-09-04','2022 SEMANA DEL 29/08 AL  04/09')").execute();</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>97</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (97,'36','2022','362022','2022-09-05','2022-09-11','2022 SEMANA DEL 05/09 AL  11/09')").execute();</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>98</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (98,'37','2022','372022','2022-09-12','2022-09-18','2022 SEMANA DEL 12/09 AL  18/09')").execute();</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>99</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (99,'38','2022','382022','2022-09-19','2022-09-25','2022 SEMANA DEL 19/09 AL  25/09')").execute();</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>100</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (100,'39','2022','392022','2022-09-26','2022-10-02','2022 SEMANA DEL 26/09 AL  02/10')").execute();</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>101</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (101,'40','2022','402022','2022-10-03','2022-10-09','2022 SEMANA DEL 03/10 AL  09/10')").execute();</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>102</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (102,'41','2022','412022','2022-10-10','2022-10-16','2022 SEMANA DEL 10/10 AL  16/10')").execute();</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>103</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (103,'42','2022','422022','2022-10-17','2022-10-23','2022 SEMANA DEL 17/10 AL  23/10')").execute();</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>104</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (104,'43','2022','432022','2022-10-24','2022-10-30','2022 SEMANA DEL 24/10 AL  30/10')").execute();</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>105</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (105,'44','2022','442022','2022-10-31','2022-11-06','2022 SEMANA DEL 31/10 AL  06/11')").execute();</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>106</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (106,'45','2022','452022','2022-11-07','2022-11-13','2022 SEMANA DEL 07/11 AL  13/11')").execute();</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>107</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (107,'46','2022','462022','2022-11-14','2022-11-20','2022 SEMANA DEL 14/11 AL  20/11')").execute();</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>108</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (108,'47','2022','472022','2022-11-21','2022-11-27','2022 SEMANA DEL 21/11 AL  27/11')").execute();</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>109</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (109,'48','2022','482022','2022-11-28','2022-12-04','2022 SEMANA DEL 28/11 AL  04/12')").execute();</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>110</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (110,'49','2022','492022','2022-12-05','2022-12-11','2022 SEMANA DEL 05/12 AL  11/12')").execute();</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>111</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (111,'50','2022','502022','2022-12-12','2022-12-18','2022 SEMANA DEL 12/12 AL  18/12')").execute();</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>112</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (112,'51','2022','512022','2022-12-19','2022-12-25','2022 SEMANA DEL 19/12 AL  25/12')").execute();</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>113</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (113,'52','2022','522022','2022-12-26','2023-01-01','2022 SEMANA DEL 26/12 AL  01/01')").execute();</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>114</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>SA.query("BC Componentes","insert into bc_programacionsemanal values (114,'1','2023','12023','2023-01-02','2023-01-08','2023 SEMANA DEL 02/01 AL  08/01')").execute();</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>115</v>
       </c>
@@ -6168,15 +6168,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="184.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="184.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (1,'NS60','BAS0000003','BATERIA 9T45 N2 OM9','C/MOLDE NS-60 MOD. NS-60 C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (2,'NS60','BAS0000004','BATERIA 11T56 N2 OM9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (3,'NS60','BAS0000005','BATERIA 11T56D N2 OM9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (4,'NS60','BAS0000076','BATERIA 11T56 I2 OM9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (5,'NS60','BAS0000239','BATERIA 13T68 N2 SO9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (6,'NS60','BAS0000236','BOLT HD60-13 L BAT.','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (7,'NS60','BAS0000237','BOLT HD60-11 L BAT.','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (8,'NS60','BAS0000269','LMS T48LS N2 S09 BATERÍA ENERJET','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (9,'NS40','BAS0000008','BATERIA 9D45  N2 OM9','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (10,'NS40','BAS0000009','BATERIA 11D56 N2 OM9','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (11,'NS40','BAS0000074','BATERIA 11D56P N2 OM9','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (12,'NS40','BAS0000229','BOLT HD40-11P L BAT.','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (13,'NS40','BAS0000235','BOLT HD40-11 L BAT.','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (14,'NS40','BAS0000270','LMS D40L N2 S09 BATERÍA ENERJET','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (15,'N-200','BAS0000054','BATERIA 27P190 N2 SO9','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (16,'N-200','BAS0000055','BATERIA 33P234 N2 SO9','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (17,'N-200','BAS0000215','BOLT HD200-27 L BAT.','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (18,'N-150','BAs0000010','BATERIA 21P144 N2 SO9','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (19,'N-150','BAS0000011','BATERIA 23P159 N2 SO9','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (20,'N-150','BAS0000012','BATERIA 25P170 N2 SO9','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (21,'N-150','BAS0000014','BATERIA 23P159 I2 SO9','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (22,'N-150','BAS0000213','BOLT HD150-21L BAT.','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (23,'N-150','BAS0000214','BOLT HD150-23 L BAT.','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (24,'N-120','BAS0000053','BATERIA 19P130 N2 SO9',' MOD. N-120 C/POS. N120 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (25,'N-120','BAS0000212','BOLT HD120-19 L BAT.',' MOD. N-120 C/POS. N120 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (26,'G-55D23','BAS0000072','BATERIA 11DA70 N2 SO9','C/MOLDE G-42 MOD. 55D23 C/POS. G34 / REG G55  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (27,'G-55D23','BAS0000073','BATERIA 13DA84 N2 SO9','C/MOLDE G-42 MOD. 55D23 C/POS. G34 / REG G55  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (28,'G-55D23','BAS0000271','LMS DA70L N2 S09 BATERÍA ENERJET','C/MOLDE G-42 MOD. 55D23 C/POS. G34 / REG G55  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (29,'G-48','BAS0000075','BATERIA 15MB90 N2 SO9','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (30,'G-48','BAS0000232','BOLT HD48-15 L BAT.','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (31,'G-48','BAS0000276','LMS MB74L N2 S09 BATERÍA ENERJET','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (32,'G-48','BAS0000286','BATERIA 15MB90 I2 EXP9','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (33,'G-42','BAS0000066','BATERIA 9W50 N2 SO9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (34,'G-42','BAS0000068','BATERIA 11W63 N2 SO9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (35,'G-42','BAS0000069','BATERIA 11W63 I2 SO9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (36,'G-42','BAS0000070','BATERIA 13W75 N2 SO9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (37,'G-42','BAS0000071','BATERIA 13W75 I2 SO9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (38,'G-42','BAS0000240','BATERIA 8W47 N2 EXP9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (39,'G-42','BAS0000241','BATERIA 8W47 I2 EXP9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (40,'G-42','BAS0000230','BOLT HD42-13 R BAT.','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (41,'G-42','BAS0000231','BOLT HD42-13L BAT.','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (42,'G-42','BAS0000238','BOLT HD42-11 L BAT.','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (43,'G-42','BAS0000275','LMS W60L N2 S09 BATERÍA ENERJET','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (44,'G-36','BAS0000210','MT CAR 8P/430AH BATERIA','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (45,'G-36','BAS0000001','MT30 N2 SO9 BATERIA','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (46,'G-36','BAS0000209','MT CAR 6P/360AH BATERIA','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (47,'G-36','BAS0000002','MT38 N2 SO9 BATERIA','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (48,'G-36','BAS0000228','BOLT HD36-7 L BATERIA','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (49,'G-36','BAS0000287','BATERIA TAXI CAR 430AH I2 EXP9','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (50,'G-34','BAS0000061','BATERIA 13SB84  N2 SO9','C/MOLDE MOD. G-24C/POS. G34   (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (51,'G-34','BAS0000063','BATERIA 15SB94 N2 SO9','C/MOLDE MOD. G-24C/POS. G34   (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (52,'G-34','BAS0000062','BATERIA 13SB84 I2 EXP9','C/MOLDE MOD. G-24C/POS. G34   (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (53,'G-31','BAS0000211','BATERIA 17T114P I2 SO9','C/MOLDE 30H-G31 MOD. G-31 C/POS. G31P (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (54,'G-31','BAS0000227','BOLT HD31-17PR BAT.','C/MOLDE 30H-G31 MOD. G-31 C/POS. G31P (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (55,'G-31','BAS0000244','BATERIA 15T105P I2 EXP9','C/MOLDE 30H-G31 MOD. G-31 C/POS. G31P (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (56,'G-27','BAS0000028','BATERIA 11M73 N2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (57,'G-27','BAS0000029','BATERIA 11M73 I2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (58,'G-27','BAS0000030','BATERIA 13M87 N2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (59,'G-27','BAS0000031','BATERIA 13M87 I2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (60,'G-27','BAS0000032','BATERIA 15M99 N2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (61,'G-27','BAS0000033','BATERIA 15M99 I2 OM9',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (62,'G-27','BAS0000220','BOLT HD27-11 R BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (63,'G-27','BAS0000221','BOLT HD27-11 L BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (64,'G-27','BAS0000222','BOLT HD27-13 R BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (65,'G-27','BAS0000223','BOLT HD27-13 L BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (66,'G-27','BAS0000224','BOLT HD27-15 R BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (67,'G-27','BAS0000225','BOLT HD27-15 L BAT.',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (68,'G-27','BAS0000273','LMS M95L N2 S09 BATERÍA ENERJET',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (69,'G-27','BAS0000274','LMS M95R I2 S09 BATERÍA ENERJET',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (70,'G-24','BAS0000017','BATERIA 11S71 N2 OM9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (71,'G-24','BAS0000018','BATERIA 11S71 I2 OM9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (72,'G-24','BAS0000019','BATERIA 13S85 N2 OM9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (73,'G-24','BAS0000020','BATERIA 13S85 I2 OM9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (74,'G-24','BAS0000233','BATERIA 9S58 N2 SO9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (75,'G-24','BAS0000234','BATERIA 9S58 I2 SO9',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (76,'G-24','BAS0000216','BOLT HD24-11 R BAT.',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (77,'G-24','BAS0000217','BOLT HD24-11 L BAT.',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (78,'G-24','BAS0000218','BOLT HD24-13 R BAT.',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (79,'G-24','BAS0000219','BOLT HD24-13 L BAT.',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (80,'G-24','BAS0000272','LMS S78L N2 S09 BATERÍA ENERJET',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (81,'BCI-31','BAS0000041','BATERIA 17T114 N2 S09','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (82,'BCI-31','BAS0000060','BATERIA 17T114 I2 S09','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (83,'BCI-31','BAS0000226','BOLT HD31-17 L BAT.','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (84,'BCI-31','BAS0000242','BATERIA 15T105 N2 EXP9','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (85,'BCI-31','BAS0000243','BATERIA 15T105 I2 EXP9','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (86,'U1','BAS0000288','BATERIA SECA TRIMOTO500 N2 SO9','C/MOLDE U1 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (87,'G-34','BAS0000295','BATERIA 11SB70 N2 EXP2','C/MOLDE MOD. G-24C/POS. G34   (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (88,'G-34','BAS0000296','BATERIA 11SB70 I2 EXP2','C/MOLDE MOD. G-24C/POS. G34   (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (89,'G-42','BAS0000293','BATERIA SECA 8W47 N2 SO2','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (90,'G-42','BAS0000294','BATERIA SECA 8W47 I2 SO2','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (91,'G-27','BAS0000298','BATERIA SECA 11M73 N2 SO2',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (92,'G-27','BAS0000299','BATERIA SECA 11M73 I2 SO2',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (93,'N-150','BAS0000297','BATERIA SECA 21P144 N2 SO2','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (94,'N-200','BAS0000248','BATERIA 27P190 I2 SO9','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (95,'NS60','BAS0000290','BATERIA 9T45 I N2 EXP2','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (96,'NS40','BAS0000289','BATERIA 8D40 N2 EXP2','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (97,'G-36','BAS0000302','BATERÍA KS-55 N2 SO9','C/MOLDE G-36 MOD. G-36  (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (98,'NS40','BAS0000303','BATERÍA  BOLT HD40 - 38 N2 SO2','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (99,'NS40','BAS0000304','BATERÍA ZERO TORITO N2 SO2','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (100,'U1','BAS0000305','BATERÍA ZERO TRIMOTO 700 N2 SO2','C/MOLDE U1 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (101,'BCI-31','BAS0000306','BATERIA 15T105 N2 EXP2','C/MOLDE 30H-G31 MOD. BC-I31C/POS. 30H (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (102,'N-200','BAS0000307','BATERIA 27P190 N2 EXP2','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (103,'N-120','BAS0000308','BATERIA 19P130 N2 EXP2',' MOD. N-120 C/POS. N120 (HRM)')").execute();</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (104,'NS40','BAS0000310','BATERIA LM40B19FL N2 EXP9','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (105,'NS60','BAS0000311','BATERIA LM55B24L N2 EXP9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (106,'NS60','BAS0000312','BATERIA LM55B24R I2 EXP9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (107,'G-42','BAS0000319','BATERÍA LM55B24LS N2 EXP9','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (108,'G-55D23','BAS0000313','BATERIA LM56077 N2 EXP9','C/MOLDE G-42 MOD. 55D23 C/POS. G34 / REG G55  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (109,'G-48','BAS0000314','BATERIA LM55D23L N2 EXP9','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (110,'NS60','BAS0000317','BATERIA LM57412 N2 EXP9','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (111,'G-48','BAS0000324','BATERÍA 12MB74 N2 EXP2','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (112,'NS40','BAS0000277','BATERÍA BOLT MF44B19FL N2 SO2','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (113,'NS60','BAS0000278','BATERÍA BOLT MF55B24LS N2 SO2','C/MOLDE NS-60 MOD. NS-60   C/ POSTIZO 11T  (HRM )')").execute();</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (114,'G-24','BAS0000279','BATERÍA BOLT MF90D26FL N2 SO2',' MOD. G-24C/POS. G24 / P. LARGO  (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (115,'G-27','BAS0000280','BATERÍA BOLT MF105D31FL N2 SO2',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (116,'G-27','BAS0000281','BATERÍA BOLT MF105D31FR N2 SO2',' MOD. G-27REG. CJA NEGRA / P. CORTO (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_dt_moldes values (117,'G-42','BAS0000282','BATERÍA BOLT MF56077 N2 SO2','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)')").execute();</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -8688,18 +8688,19 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="150" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (1,'G-42','C/MOLDE G-42 MOD. G-42 C/POS. G42 / REG.42 (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (2,'N-120',' MOD. N-120 C/POS. N120 (HRM)',700,350)").execute();</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (3,'N-150','C/MOLDE N-150 MOD. N-150 C/POS. N150 (HRM)',700,350)").execute();</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (4,'G-31','C/MOLDE 30H-G31 MOD. G-31 C/POS. G31P (HRM)',700,350)").execute();</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (5,'BCI-31','C/MOLDE 30H-G31 MOD. BC-I31 C/POS. 30H (HRM)',700,350)").execute();</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (6,'G-24',' MOD. G-24 C/POS. G24 / P. LARGO  (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8862,11 +8863,11 @@
         <v>1080</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(TEXT("SA.query(",0),TEXT("""SBO_INTERACT_PROD"",""insert into bc_tabla_molde values (",0),A8,TEXT(",'",0),B8,TEXT("','",0),C8,TEXT("',",0),D8,TEXT(",",0),E8,TEXT(")"").execute();",0))</f>
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (7,'G-48','C/MOLDE G-24 MOD. G-48 C/POS. G34 / REG G48  (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (8,'G-55D23','C/MOLDE G-42 MOD. 55D23 C/POS. G34 / REG G55  (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8908,7 +8909,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (9,'G-27',' MOD. G-27 REG. CJA NEGRA / P. CORTO (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (10,'N-200','C/MOLDE N-150 MOD. N-200 C/POS. N200 (HRM)',700,350)").execute();</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (11,'NS60','C/MOLDE NS-60 MOD. NS-60  C/ POSTIZO 11T  (HRM )',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8971,7 +8972,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (12,'NS40','C/MOLDE NS-40 MOD. NS-40   C/ POSTIZO  (HRM )',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (13,'G-36','C/MOLDE G-36 MOD. G-36  (HRM)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>SA.query("SBO_INTERACT_PROD","insert into bc_tabla_molde values (14,'G-34','C/MOLDE MOD. G-24 C/POS. G34   (BATEK)',2160,1080)").execute();</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
